--- a/doc/ALYS4AE/japanese_reclist.xlsx
+++ b/doc/ALYS4AE/japanese_reclist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\source\repos\ALYS\doc\ALYS4AE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1642CC99-0F9E-484C-A16A-8CABED91B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C9128-20D5-44FE-BB5C-540A1E902B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2760" windowWidth="18810" windowHeight="12540" activeTab="1" xr2:uid="{A53FE9E5-8247-44D3-9DB9-97780783B6EF}"/>
+    <workbookView xWindow="3570" yWindow="2760" windowWidth="18810" windowHeight="12540" activeTab="4" xr2:uid="{A53FE9E5-8247-44D3-9DB9-97780783B6EF}"/>
   </bookViews>
   <sheets>
     <sheet name="s001-s012" sheetId="1" r:id="rId1"/>
@@ -6257,7 +6257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD75FC73-8673-47D8-B2FF-9EC070C3FF43}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6538,7 +6540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2526D59D-624A-4C2D-B415-A41154695DF2}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10492,7 +10496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AED6DB-CC6B-4D50-8436-9E8AFA40E776}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10948,7 +10954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F4C54-0AB4-4683-B77F-4350FA29C69F}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12908,7 +12916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B867D5-A937-45CE-A80C-3588560ED69B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
